--- a/daily_log_template.xlsx
+++ b/daily_log_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t xml:space="preserve">Activity</t>
   </si>
@@ -34,13 +34,43 @@
     <t xml:space="preserve">Monday</t>
   </si>
   <si>
+    <t xml:space="preserve">Hoorcollege</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anne, Pasqual, Sander, Latitia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 uur</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tuesday</t>
   </si>
   <si>
+    <t xml:space="preserve">Kickoff werkgroep</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wednesday</t>
   </si>
   <si>
+    <t xml:space="preserve">Dataset analyseren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 minuten</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thursday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TA Meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45 minuten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Github klaarzetten, brainstormen, etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 uur</t>
   </si>
   <si>
     <t xml:space="preserve">Friday</t>
@@ -64,6 +94,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -85,12 +116,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -168,16 +201,16 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.8112244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="54.4642857142857"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.8112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="53.7244897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -196,35 +229,82 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
